--- a/ci-build-0-6-0/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/ci-build-0-6-0/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -34,7 +34,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.0</t>
+    <t>0.6.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -64,7 +64,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-18T08:37:20+00:00</t>
+    <t>2025-03-18T08:49:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
